--- a/CashFlow/HZNP_cashflow.xlsx
+++ b/CashFlow/HZNP_cashflow.xlsx
@@ -744,19 +744,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>286000000.0</v>
+        <v>-21451000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>265000000.0</v>
+        <v>-18593000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>180500000.0</v>
+        <v>-15107000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>114843000.0</v>
+        <v>-16865000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>45996000.0</v>
+        <v>-3268000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-5626000.0</v>
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>16015000.0</v>
+        <v>233000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>12324000.0</v>
+        <v>217000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>95650000.0</v>
+        <v>195480000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>33911000.0</v>
+        <v>82745000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-15976000.0</v>
+        <v>11409000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-5385000.0</v>
